--- a/public/assets/waybill_template.xlsx
+++ b/public/assets/waybill_template.xlsx
@@ -37,33 +37,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-请填写格式为“2020-01-01”，可不填写，不填写时默认为当前日期。</t>
+客户单号</t>
         </r>
       </text>
     </comment>
     <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>tzc:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-客户单号</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,9 +68,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -108,10 +94,15 @@
     </r>
   </si>
   <si>
-    <t>订单日期</t>
-  </si>
-  <si>
-    <r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -127,7 +118,24 @@
     </r>
   </si>
   <si>
-    <r>
+    <t>订单类型</t>
+  </si>
+  <si>
+    <t>发货门店编码</t>
+  </si>
+  <si>
+    <t>发货门店名称</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -139,14 +147,19 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>订单类型</t>
-    </r>
-  </si>
-  <si>
-    <t>发货仓</t>
-  </si>
-  <si>
-    <r>
+      <t>发货省</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -158,11 +171,19 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>发货省</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t>发货城市</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -174,11 +195,19 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>发货城市</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t>发货区/县</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -190,11 +219,19 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>发货区/县</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t>发货地址</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -206,11 +243,19 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>发货地址</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t>发货人</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -222,11 +267,25 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>发货人</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t>发货人电话</t>
+    </r>
+  </si>
+  <si>
+    <t>收货门店编码</t>
+  </si>
+  <si>
+    <t>收货门店名称</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -238,14 +297,19 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>发货人电话</t>
-    </r>
-  </si>
-  <si>
-    <t>收货仓</t>
-  </si>
-  <si>
-    <r>
+      <t>收货省</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -257,11 +321,19 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>收货省</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t>收货城市</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -273,11 +345,19 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>收货城市</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t>收货区/县</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -289,11 +369,19 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>收货区/县</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t>收货地址</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -305,11 +393,19 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>收货地址</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t>收货人</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -321,22 +417,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>收货人</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>收货人电话</t>
     </r>
   </si>
@@ -345,12 +425,6 @@
   </si>
   <si>
     <t>商品数量</t>
-  </si>
-  <si>
-    <t>体积</t>
-  </si>
-  <si>
-    <t>重量</t>
   </si>
   <si>
     <t>备注</t>
@@ -360,14 +434,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -395,6 +467,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -402,7 +481,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,6 +510,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -430,23 +525,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,17 +541,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,6 +579,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -507,32 +594,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,132 +636,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -697,54 +817,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,62 +833,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,7 +858,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,6 +888,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -863,10 +935,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -875,165 +947,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1355,99 +1415,96 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="10.2222222222222" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5555555555556" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8888888888889" style="1" customWidth="1"/>
-    <col min="5" max="8" width="12.2222222222222" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.8888888888889" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18.7777777777778" style="1" customWidth="1"/>
+    <col min="6" max="8" width="12.2222222222222" style="1" customWidth="1"/>
     <col min="9" max="9" width="21.6666666666667" style="1" customWidth="1"/>
-    <col min="10" max="15" width="12.2222222222222" style="1" customWidth="1"/>
-    <col min="16" max="16" width="21.6666666666667" style="1" customWidth="1"/>
-    <col min="17" max="18" width="12.2222222222222" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.8888888888889" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.8888888888889" style="2" customWidth="1"/>
-    <col min="21" max="21" width="12.8888888888889" style="3" customWidth="1"/>
-    <col min="22" max="22" width="12.8888888888889" style="4" customWidth="1"/>
-    <col min="23" max="23" width="32.4444444444444" style="1" customWidth="1"/>
+    <col min="10" max="11" width="12.2222222222222" style="1" customWidth="1"/>
+    <col min="12" max="13" width="18.7777777777778" style="1" customWidth="1"/>
+    <col min="14" max="16" width="12.2222222222222" style="1" customWidth="1"/>
+    <col min="17" max="17" width="21.6666666666667" style="1" customWidth="1"/>
+    <col min="18" max="19" width="12.2222222222222" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.8888888888889" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.8888888888889" style="2" customWidth="1"/>
+    <col min="22" max="22" width="32.4444444444444" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
